--- a/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -291,12 +291,6 @@
   </si>
   <si>
     <t>Période des observations</t>
-  </si>
-  <si>
-    <t>fr-lm-naissance.resultat</t>
-  </si>
-  <si>
-    <t>Résultat de l’observation effectuée</t>
   </si>
   <si>
     <t>fr-lm-naissance.identificationNouveauNe</t>
@@ -621,7 +615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1305,13 +1299,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1379,10 +1373,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1393,7 +1387,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1405,13 +1399,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1462,118 +1456,18 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-naissance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
